--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3267267.880005882</v>
+        <v>3264695.925487976</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>398.6601030860782</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>43.99240337009272</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>37.94448079992561</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>375.8558292490994</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,16 +944,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>86.1145648561627</v>
       </c>
       <c r="W7" t="n">
-        <v>74.53436060286496</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.53815412835747</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>289.2221598733559</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>9.461970681989216</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>110.3569086801638</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>14.92158678358339</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>1.839588425939253</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>40.53421095546916</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165723</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057933</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4513012076585</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1236.578376364604</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>867.6158594241924</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>867.6158594241924</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>867.6158594241924</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6299546345849</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>2013.317548404538</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1623.178216428726</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>683.6922131255325</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.9693282917581</v>
+        <v>979.5885935818919</v>
       </c>
       <c r="C5" t="n">
-        <v>594.0068113513464</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D5" t="n">
-        <v>594.0068113513464</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>594.0068113513464</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>587.061310602143</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W7" t="n">
-        <v>652.8417512742476</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X7" t="n">
-        <v>424.8522003762303</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>770.9958865030537</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>764.0503857538503</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>346.0865776520371</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4884,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2152.636624305706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1863.561397649904</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1608.876909444017</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1319.459739407057</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1018.438627038651</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>849.5024441107445</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>699.3858046984087</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E16" t="n">
-        <v>551.4727111160156</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F16" t="n">
-        <v>404.5827636181052</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>237.3866643329852</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>95.67483317518324</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1938.286391947399</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1648.869221910438</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1420.879671012421</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1200.087091868891</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5507,10 +5507,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5835,16 +5835,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6075,19 +6075,19 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>150.8995423128889</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>484.8243144841095</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>980.1499206998682</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,16 +6704,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>150.8995423128889</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>980.1499206998682</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,52 +6917,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589157</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143764</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143764</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>107.0485416471245</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>79.42624789262628</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>105.8997516911</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>32.15184655856254</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
     </row>
     <row r="38">
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>84.25835418137865</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>710522.8824838419</v>
+        <v>710522.8824838417</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>710522.8824838417</v>
+        <v>710522.8824838419</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287548</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.274728755</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="J2" t="n">
-        <v>706253.2747287549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="O2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287554</v>
       </c>
     </row>
     <row r="3">
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670442</v>
       </c>
       <c r="F4" t="n">
         <v>5067.592601670466</v>
       </c>
       <c r="G4" t="n">
+        <v>5067.592601670437</v>
+      </c>
+      <c r="H4" t="n">
         <v>5067.592601670443</v>
       </c>
-      <c r="H4" t="n">
-        <v>5067.592601670442</v>
-      </c>
       <c r="I4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670442</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670404</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670462</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670439</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155479.9145744376</v>
+        <v>-155479.9145744372</v>
       </c>
       <c r="C6" t="n">
-        <v>434487.9646401071</v>
+        <v>434487.964640107</v>
       </c>
       <c r="D6" t="n">
-        <v>434487.964640107</v>
+        <v>434487.9646401072</v>
       </c>
       <c r="E6" t="n">
-        <v>-344309.6254545309</v>
+        <v>-344344.3633799668</v>
       </c>
       <c r="F6" t="n">
-        <v>600063.1523031773</v>
+        <v>600028.414377742</v>
       </c>
       <c r="G6" t="n">
-        <v>600063.1523031775</v>
+        <v>600028.4143777426</v>
       </c>
       <c r="H6" t="n">
-        <v>600063.1523031775</v>
+        <v>600028.414377742</v>
       </c>
       <c r="I6" t="n">
-        <v>600063.1523031779</v>
+        <v>600028.4143777423</v>
       </c>
       <c r="J6" t="n">
-        <v>423639.9331105843</v>
+        <v>423605.1951851493</v>
       </c>
       <c r="K6" t="n">
-        <v>600063.1523031782</v>
+        <v>600028.4143777424</v>
       </c>
       <c r="L6" t="n">
-        <v>600063.1523031781</v>
+        <v>600028.4143777419</v>
       </c>
       <c r="M6" t="n">
-        <v>475854.6415951191</v>
+        <v>475819.9036696836</v>
       </c>
       <c r="N6" t="n">
-        <v>600063.1523031781</v>
+        <v>600028.4143777421</v>
       </c>
       <c r="O6" t="n">
-        <v>600063.1523031782</v>
+        <v>600028.414377742</v>
       </c>
       <c r="P6" t="n">
-        <v>600063.152303178</v>
+        <v>600028.4143777424</v>
       </c>
     </row>
   </sheetData>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>15.12406693471678</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27585,10 +27585,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>168.1531355799262</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>327.328410971082</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>37.92834077169556</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>166.0230784676653</v>
       </c>
       <c r="W7" t="n">
-        <v>211.988637733726</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>356.1956875351231</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>34.70061289100124</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,7 +27910,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28056,16 +28056,16 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32555,10 +32555,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32795,7 +32795,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,22 +33023,22 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>184.4971006716334</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,16 +33275,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>184.4971006716334</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34232,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>391.9250669264629</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,10 +34784,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35252,13 +35252,13 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35419,7 +35419,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,7 +36215,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36443,7 +36443,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>57.6594740049667</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,16 +36923,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>57.6594740049667</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396396</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>257.9506595121327</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
